--- a/fuentes/contenidos/grado07/guion08/ESCALETA_MA_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/ESCALETA_MA_07_08_CO.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\Escaletas\Escaletas Matemáticas 7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="219">
   <si>
     <t>Asignatura</t>
   </si>
@@ -245,147 +240,30 @@
     <t>f13b</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOLOGÍA: </t>
-  </si>
-  <si>
-    <t>ASIGNATURA</t>
-  </si>
-  <si>
     <t>MATEMÁTICAS</t>
   </si>
   <si>
-    <t xml:space="preserve">SOCIALES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENGUAJE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO MEDIA </t>
-  </si>
-  <si>
-    <t>SECUENCIA DE IMÁGENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDEO </t>
-  </si>
-  <si>
     <t xml:space="preserve">INTERACTIVO </t>
   </si>
   <si>
-    <t xml:space="preserve">ANIMACIÓN </t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVIDAD </t>
   </si>
   <si>
     <t xml:space="preserve">MAPA CONCEPTUAL </t>
   </si>
   <si>
-    <t>TIPO DE MOTOR M</t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR F</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
     <t>F6B</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F7B</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F10B</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F13B</t>
-  </si>
-  <si>
-    <t>M6A</t>
-  </si>
-  <si>
-    <t>M6B</t>
-  </si>
-  <si>
-    <t>M7A</t>
-  </si>
-  <si>
-    <t>M8A</t>
-  </si>
-  <si>
-    <t>M9B</t>
-  </si>
-  <si>
-    <t>M9C</t>
-  </si>
-  <si>
     <t>M10A</t>
   </si>
   <si>
-    <t>M10B</t>
-  </si>
-  <si>
-    <t>M11A</t>
-  </si>
-  <si>
-    <t>M12A</t>
-  </si>
-  <si>
-    <t>M12B</t>
-  </si>
-  <si>
-    <t>M12C</t>
-  </si>
-  <si>
-    <t>M12D</t>
-  </si>
-  <si>
-    <t>M13A</t>
-  </si>
-  <si>
-    <t>M13B</t>
-  </si>
-  <si>
-    <t>M14A</t>
-  </si>
-  <si>
-    <t>M15A</t>
-  </si>
-  <si>
     <t>M101A</t>
   </si>
   <si>
     <t>M101AP</t>
   </si>
   <si>
-    <t>M102AB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fuente curso </t>
   </si>
   <si>
@@ -407,237 +285,15 @@
     <t>M</t>
   </si>
   <si>
-    <t>CIENCIAS</t>
-  </si>
-  <si>
-    <t>M1A</t>
-  </si>
-  <si>
     <t>M1B</t>
   </si>
   <si>
-    <t>M1C</t>
-  </si>
-  <si>
-    <t>M1D</t>
-  </si>
-  <si>
-    <t>M2A</t>
-  </si>
-  <si>
-    <t>M2B</t>
-  </si>
-  <si>
-    <t>M3A</t>
-  </si>
-  <si>
-    <t>M2C</t>
-  </si>
-  <si>
-    <t>M3B</t>
-  </si>
-  <si>
-    <t>M3B1</t>
-  </si>
-  <si>
-    <t>M4A</t>
-  </si>
-  <si>
     <t>M5A</t>
   </si>
   <si>
-    <t>M5B</t>
-  </si>
-  <si>
-    <t>M5C</t>
-  </si>
-  <si>
-    <t>M5D</t>
-  </si>
-  <si>
-    <t>MT_1_1</t>
-  </si>
-  <si>
-    <t>MT_2_1</t>
-  </si>
-  <si>
-    <t>MT_3_1</t>
-  </si>
-  <si>
-    <t>MT_3_2</t>
-  </si>
-  <si>
-    <t>MT_3_3</t>
-  </si>
-  <si>
-    <t>MT_4_1</t>
-  </si>
-  <si>
-    <t>MT_4_2</t>
-  </si>
-  <si>
-    <t>MT_5_1</t>
-  </si>
-  <si>
-    <t>MT_6_1</t>
-  </si>
-  <si>
-    <t>MT_6_2</t>
-  </si>
-  <si>
-    <t>MT_6_3</t>
-  </si>
-  <si>
-    <t>MT_9_1</t>
-  </si>
-  <si>
-    <t>MT_11_1</t>
-  </si>
-  <si>
-    <t>MT_12_1</t>
-  </si>
-  <si>
-    <t>MT_13_1</t>
-  </si>
-  <si>
-    <t>MT_14_1</t>
-  </si>
-  <si>
-    <t>MT_14_2</t>
-  </si>
-  <si>
-    <t>MT_16_1</t>
-  </si>
-  <si>
-    <t>MT_17_1</t>
-  </si>
-  <si>
-    <t>MT_19_1</t>
-  </si>
-  <si>
-    <t>MT_09_08_06</t>
-  </si>
-  <si>
-    <t>MT_09_08_08</t>
-  </si>
-  <si>
-    <t>MT_09_08_10</t>
-  </si>
-  <si>
-    <t>MT_09_12_03</t>
-  </si>
-  <si>
-    <t>MT_09_12_04</t>
-  </si>
-  <si>
-    <t>MT_10_09_04</t>
-  </si>
-  <si>
-    <t>MT_09_10_05a</t>
-  </si>
-  <si>
-    <t>MT_09_10_05b</t>
-  </si>
-  <si>
-    <t>MT_09_10_05d</t>
-  </si>
-  <si>
-    <t>MT_10_12_09</t>
-  </si>
-  <si>
-    <t>MT_09_01_03a</t>
-  </si>
-  <si>
-    <t>MT_10_01_03</t>
-  </si>
-  <si>
-    <t>MT_10_01_04</t>
-  </si>
-  <si>
-    <t>MT_10_02_09</t>
-  </si>
-  <si>
-    <t>MT_10_03_07</t>
-  </si>
-  <si>
-    <t>MT_10_03_10</t>
-  </si>
-  <si>
-    <t>MT_10_04_09</t>
-  </si>
-  <si>
-    <t>MT_10_04_10</t>
-  </si>
-  <si>
-    <t>MT_10_05_07</t>
-  </si>
-  <si>
-    <t>MT_10_05_08</t>
-  </si>
-  <si>
-    <t>MT_09_05_03</t>
-  </si>
-  <si>
-    <t>MT_09_05_04</t>
-  </si>
-  <si>
-    <t>MT_09_05_07</t>
-  </si>
-  <si>
-    <t>MT_09_05_09</t>
-  </si>
-  <si>
-    <t>MT_09_06_05a</t>
-  </si>
-  <si>
-    <t>MT_09_06_05b</t>
-  </si>
-  <si>
-    <t>MT_09_06_05c</t>
-  </si>
-  <si>
-    <t>MT_09_09_03</t>
-  </si>
-  <si>
-    <t>MT_09_07_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_01</t>
-  </si>
-  <si>
-    <t>MT_10_06_04</t>
-  </si>
-  <si>
-    <t>MT_10_06_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_07</t>
-  </si>
-  <si>
-    <t>MT_10_06_08</t>
-  </si>
-  <si>
-    <t>MT_10_06_09</t>
-  </si>
-  <si>
     <t>Comentarios/Indicaciones</t>
   </si>
   <si>
-    <t>COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>MODELACIÓN</t>
-  </si>
-  <si>
-    <t>RESOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
-    <t>EJERCITACIÓN</t>
-  </si>
-  <si>
-    <t>RAZONAMIENTO</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -732,9 +388,6 @@
   </si>
   <si>
     <t>Cambiar los problemas que hacen uso de dinero por la notación en pesos y  cantidades en miles</t>
-  </si>
-  <si>
-    <t>3° ESO</t>
   </si>
   <si>
     <t>La proporcionalidad y los porcentajes</t>
@@ -925,9 +578,6 @@
     <t>Subsubtemas (secc 3)</t>
   </si>
   <si>
-    <t>Banco ed actividades: Las aplicaciones de la proporcionalidad</t>
-  </si>
-  <si>
     <t>Interactivo que muestra situaciones que requieren la aplicación de porcentajes</t>
   </si>
   <si>
@@ -1000,9 +650,6 @@
     <t>Banco de actividades: La proporcionalidad y los porcentajes</t>
   </si>
   <si>
-    <t>Practica el cálculo de porcentajes</t>
-  </si>
-  <si>
     <t>RM_01_01_CO</t>
   </si>
   <si>
@@ -1019,13 +666,22 @@
   </si>
   <si>
     <t>Recurso M5A-02</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Las aplicaciones de la proporcionalidad</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>MTC_09_06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,22 +711,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1079,19 +719,23 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1303,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1350,194 +994,226 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,7 +1276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1635,7 +1311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1844,6 +1520,1861 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18" style="30" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30" customWidth="1"/>
+    <col min="9" max="9" width="10" style="30" customWidth="1"/>
+    <col min="10" max="10" width="60" style="31" customWidth="1"/>
+    <col min="11" max="11" width="15" style="30" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="49.28515625" style="31" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="33" style="31" customWidth="1"/>
+    <col min="20" max="20" width="42.140625" style="31" customWidth="1"/>
+    <col min="21" max="21" width="36.5703125" style="30" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="88"/>
+      <c r="O1" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="81"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="102"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>9</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="47">
+        <v>2</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>9</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="47">
+        <v>3</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>6</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="47">
+        <v>4</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>9</v>
+      </c>
+      <c r="R6" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="47">
+        <v>5</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>6</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="40">
+        <v>6</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="51">
+        <v>9</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="47">
+        <v>7</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>6</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="U9" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="47">
+        <v>8</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>9</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="47">
+        <v>9</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>9</v>
+      </c>
+      <c r="R11" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="S11" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="U11" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="47">
+        <v>10</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="51">
+        <v>9</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="S12" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="U12" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="40">
+        <v>11</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>6</v>
+      </c>
+      <c r="R13" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="47">
+        <v>12</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="51">
+        <v>9</v>
+      </c>
+      <c r="R14" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="S14" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="47">
+        <v>13</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="51">
+        <v>8</v>
+      </c>
+      <c r="R15" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="U15" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="47">
+        <v>14</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="51">
+        <v>8</v>
+      </c>
+      <c r="R16" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="47">
+        <v>15</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>8</v>
+      </c>
+      <c r="R17" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="40">
+        <v>16</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>6</v>
+      </c>
+      <c r="R18" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="U18" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="47">
+        <v>17</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>9</v>
+      </c>
+      <c r="R19" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="S19" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="47">
+        <v>18</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="51">
+        <v>8</v>
+      </c>
+      <c r="R20" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="U20" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="47">
+        <v>19</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="51">
+        <v>9</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T21" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="47">
+        <v>20</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>9</v>
+      </c>
+      <c r="R22" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="U22" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="40">
+        <v>21</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="51">
+        <v>9</v>
+      </c>
+      <c r="R23" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="U23" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="47">
+        <v>22</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="51">
+        <v>9</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="47">
+        <v>23</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="51">
+        <v>9</v>
+      </c>
+      <c r="R25" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T25" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="U25" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="47">
+        <v>24</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26" s="51">
+        <v>9</v>
+      </c>
+      <c r="R26" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S26" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T26" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="U26" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="47">
+        <v>25</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>6</v>
+      </c>
+      <c r="R27" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S27" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="40">
+        <v>26</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="51">
+        <v>9</v>
+      </c>
+      <c r="R28" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="U28" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="47">
+        <v>27</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="54"/>
+      <c r="K29" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="57"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="47">
+        <v>28</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="51">
+        <v>6</v>
+      </c>
+      <c r="R30" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S30" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="T30" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="U30" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="47">
+        <v>29</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="51">
+        <v>10</v>
+      </c>
+      <c r="R31" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T31" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="U31" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+    </row>
+    <row r="33" spans="1:20" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M31">
+      <formula1>$A$38:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M28">
+      <formula1>$A$30:$A$44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K31">
+      <formula1>$C$35:$D$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L31">
+      <formula1>$C$36:$K$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N31">
+      <formula1>$A$75:$A$164</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A33">
+      <formula1>$C$34:$H$34</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1257"/>
   <sheetViews>
     <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
@@ -6128,2730 +7659,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V175"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18" style="30" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9" style="30" customWidth="1"/>
-    <col min="9" max="9" width="10" style="30" customWidth="1"/>
-    <col min="10" max="10" width="60" style="46" customWidth="1"/>
-    <col min="11" max="11" width="15" style="30" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="30" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="30" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="30" customWidth="1"/>
-    <col min="15" max="15" width="49.28515625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="30" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="30" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="30" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="30" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" style="30" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="30" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="L1" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="76"/>
-    </row>
-    <row r="3" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="39">
-        <v>1</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="R3" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="T3" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="U3" s="96"/>
-    </row>
-    <row r="4" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="53">
-        <v>2</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="57">
-        <v>9</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="H5" s="53">
-        <v>3</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="57">
-        <v>6</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="S5" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="T5" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="U5" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="53">
-        <v>4</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="57">
-        <v>9</v>
-      </c>
-      <c r="R6" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S6" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="53">
-        <v>5</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="57">
-        <v>6</v>
-      </c>
-      <c r="R7" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="S7" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="T7" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="U7" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="39">
-        <v>6</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="57">
-        <v>9</v>
-      </c>
-      <c r="R8" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S8" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T8" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="53">
-        <v>7</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="P9" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="57">
-        <v>6</v>
-      </c>
-      <c r="R9" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="S9" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="T9" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="U9" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="53">
-        <v>8</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>9</v>
-      </c>
-      <c r="R10" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S10" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T10" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="U10" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="V10" s="65"/>
-    </row>
-    <row r="11" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" s="53">
-        <v>9</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="57">
-        <v>9</v>
-      </c>
-      <c r="R11" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S11" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T11" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="U11" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="H12" s="53">
-        <v>10</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="57">
-        <v>9</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="U12" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="H13" s="39">
-        <v>11</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="P13" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="57">
-        <v>6</v>
-      </c>
-      <c r="R13" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="S13" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="T13" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="U13" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="53">
-        <v>12</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J14" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q14" s="57">
-        <v>9</v>
-      </c>
-      <c r="R14" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S14" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="U14" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="53">
-        <v>13</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="57">
-        <v>8</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S15" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="T15" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="U15" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="H16" s="53">
-        <v>14</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="P16" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="57">
-        <v>8</v>
-      </c>
-      <c r="R16" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S16" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="T16" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="U16" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="53">
-        <v>15</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="P17" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="57">
-        <v>8</v>
-      </c>
-      <c r="R17" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S17" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="T17" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="U17" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="39">
-        <v>16</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="P18" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="57">
-        <v>6</v>
-      </c>
-      <c r="R18" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="T18" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="U18" s="57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="53">
-        <v>17</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="P19" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="57">
-        <v>9</v>
-      </c>
-      <c r="R19" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S19" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T19" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="U19" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="53">
-        <v>18</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J20" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q20" s="57">
-        <v>8</v>
-      </c>
-      <c r="R20" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S20" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="T20" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="U20" s="57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" s="53">
-        <v>19</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="57">
-        <v>9</v>
-      </c>
-      <c r="R21" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S21" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T21" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="U21" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="53">
-        <v>20</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="57">
-        <v>9</v>
-      </c>
-      <c r="R22" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S22" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T22" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="U22" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="H23" s="39">
-        <v>21</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="57">
-        <v>9</v>
-      </c>
-      <c r="R23" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S23" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T23" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="U23" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="53">
-        <v>22</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="57">
-        <v>9</v>
-      </c>
-      <c r="R24" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S24" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T24" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="U24" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" s="53">
-        <v>23</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="57">
-        <v>9</v>
-      </c>
-      <c r="R25" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S25" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T25" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="U25" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="53">
-        <v>24</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q26" s="57">
-        <v>9</v>
-      </c>
-      <c r="R26" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S26" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T26" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="U26" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="H27" s="53">
-        <v>25</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="O27" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="P27" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="57">
-        <v>6</v>
-      </c>
-      <c r="R27" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="S27" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="T27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="U27" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="H28" s="39">
-        <v>26</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="57">
-        <v>9</v>
-      </c>
-      <c r="R28" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S28" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T28" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="U28" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="53">
-        <v>27</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" s="61"/>
-      <c r="K29" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="44"/>
-    </row>
-    <row r="30" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="H30" s="53">
-        <v>28</v>
-      </c>
-      <c r="I30" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="O30" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="P30" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="57">
-        <v>6</v>
-      </c>
-      <c r="R30" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="S30" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="T30" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="U30" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="H31" s="53">
-        <v>29</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="O31" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="P31" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q31" s="57">
-        <v>10</v>
-      </c>
-      <c r="R31" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="S31" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="T31" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="U31" s="57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="J32" s="49"/>
-    </row>
-    <row r="33" spans="1:11" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="J33" s="49"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L73" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="G86" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G88" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="G89" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G107" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G110" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G112" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G113" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G115" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G116" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G117" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G118" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G120" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G121" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="G122" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G124" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G126" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G127" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G128" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G129" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G130" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G131" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="G132" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G133" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G135" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G136" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G138" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G140" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="G141" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="G142" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G143" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="G144" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G145" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G146" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G147" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G148" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G149" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="G150" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G151" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G152" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G153" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G154" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="G155" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G156" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G157" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="G158" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G159" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="G160" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="G161" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G162" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="G163" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="G164" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G165" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G166" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G167" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G168" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G169" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G170" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G171" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G172" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G173" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G174" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G175" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M31">
-      <formula1>$A$38:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M28">
-      <formula1>$A$30:$A$44</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K31">
-      <formula1>$C$35:$D$35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L31">
-      <formula1>$C$36:$K$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N31">
-      <formula1>$A$75:$A$164</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A33">
-      <formula1>$C$34:$H$34</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/fuentes/contenidos/grado07/guion08/ESCALETA_MA_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/ESCALETA_MA_07_08_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado07\guion08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -1141,6 +1146,21 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1199,21 +1219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,7 +1281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,7 +1316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1522,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1553,94 +1558,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="81" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="105" t="s">
+      <c r="R1" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="104" t="s">
+      <c r="S1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="T1" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="34" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="102"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="82"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
@@ -3327,12 +3332,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3347,6 +3346,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M31">
